--- a/Bugasura.xlsx
+++ b/Bugasura.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Software tesing 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Software tesing 2024\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1756A04C-BA79-4DE3-9CE7-2436112D969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C579598-1B67-48C2-8AF8-976D2BC6BB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{969D6E98-B9F1-448C-A441-F17A4227C68C}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Bugasura</t>
   </si>
   <si>
-    <t xml:space="preserve">Gandhi </t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -954,6 +951,9 @@
   </si>
   <si>
     <t>Verify the working of Ceating Project functionality</t>
+  </si>
+  <si>
+    <t>Purushottam M N</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1309,17 +1309,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2132,7 +2129,7 @@
   <dimension ref="A2:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,37 +2145,37 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="42"/>
+      <c r="B5" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2187,14 +2184,14 @@
       <c r="B6" s="43">
         <v>45547</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -2215,7 +2212,7 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>18</v>
@@ -2249,7 +2246,7 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2266,13 +2263,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
@@ -2489,12 +2486,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -2502,15 +2499,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
         <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4">
         <v>38</v>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5">
         <v>38</v>
@@ -2526,7 +2523,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2550,7 +2547,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2582,7 +2579,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2590,7 +2587,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2598,7 +2595,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2606,7 +2603,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -2632,325 +2629,325 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="I3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="I4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="33"/>
@@ -3189,489 +3186,489 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="I3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="I4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="34"/>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>123</v>
-      </c>
       <c r="I14" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="G15" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="G16" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="G17" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3857,363 +3854,363 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="F2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>234</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>235</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="34"/>
       <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="G5" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>63</v>
+      <c r="I5" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="F8" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>193</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>197</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>200</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>212</v>
-      </c>
       <c r="C13" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>205</v>
-      </c>
       <c r="F13" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4468,508 +4465,508 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="37"/>
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="I3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="G5" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="G7" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="G8" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="31" t="s">
         <v>88</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>89</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="G10" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>105</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>122</v>
-      </c>
       <c r="G13" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>155</v>
-      </c>
       <c r="G14" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>163</v>
-      </c>
       <c r="I15" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>167</v>
-      </c>
       <c r="I16" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="F17" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="G17" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="I17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5051,211 +5048,211 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>201</v>
-      </c>
       <c r="H6" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>201</v>
-      </c>
       <c r="H7" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
